--- a/Bitacoras/NRC_124_Grupo_43/Parcial_01/Bitacora_Laboratorio_Parcial_01_NRC_125.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Parcial_01/Bitacora_Laboratorio_Parcial_01_NRC_125.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\Parcial_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213C1199-0B38-46A3-9E63-382F961070FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FD7285-7573-49E4-A2BC-BC6869573D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-480000" yWindow="-480000" windowWidth="2400" windowHeight="585" tabRatio="385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos de asignación" sheetId="1" r:id="rId1"/>
@@ -683,7 +683,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns="">
+      <mc:Fallback xmlns="" xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -761,7 +761,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns="">
+      <mc:Fallback xmlns="" xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name="Name"/>
@@ -854,9 +854,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -894,7 +894,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1000,7 +1000,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1142,7 +1142,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4482,7 +4482,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5214,7 +5214,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="11" style="8"/>
+    <col min="4" max="5" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="6.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
